--- a/SampleFramework/TestSuites&TestCases/TestCasesComplete.xlsx
+++ b/SampleFramework/TestSuites&TestCases/TestCasesComplete.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\SampleFramework\TestSuites&amp;TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\GithubRepo\TestSelKeyword1\TestSuites&amp;TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="434" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="434"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseSheet" sheetId="1" r:id="rId1"/>
@@ -711,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,18 +745,26 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -770,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -1507,7 +1515,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY() + 10</f>
-        <v>43451</v>
+        <v>43458</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>85</v>
